--- a/Task/2014-08-22_RA_分经营属性周转报表开发/RA分经营属性周转报表技术方案.xlsx
+++ b/Task/2014-08-22_RA_分经营属性周转报表开发/RA分经营属性周转报表技术方案.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ksh与odi关系!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ODI!$A$1:$G$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ODI!$A$1:$G$84</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">现有ODI数据流!$A$1:$J$42</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="494">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1718,6 +1718,175 @@
   </si>
   <si>
     <t>PLP_RetailSUPPSalesITSCLcDyAggregate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_BBG_Retail_SalesTransactionFact</t>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFactTempLoad_A</t>
+  </si>
+  <si>
+    <t>BBG_XTERN_RDWT
+RESTART_LOC
+STORE
+DEPS
+SA_TRAN_HEAD
+SA_TRAN_ITEM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP_A</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesPromotionTransactionFact</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP_A
+ITEM_MASTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPR_TX_IT_LC_DY_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFactTempLoad_A1</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFact_NonItem</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_IT_LC_DY_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFactTempLoad_A2</t>
+  </si>
+  <si>
+    <t>STORE
+CLASS
+ITEM_MASTER
+DEPS
+W_RTL_SLS_TRX_TMP_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFact_Item</t>
+  </si>
+  <si>
+    <t>BBG_RA_ITEM_LOC_SOH_V
+ITEM_SUPPLIER
+ITEM_LOC
+W_RTL_SLS_TRX_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFactTempLoad_PackCompCost</t>
+  </si>
+  <si>
+    <t>BBG_RA_ITEM_LOC_SOH_V
+W_RTL_SLS_TRX_TMP
+V_PACKSKU_QTY
+ITEM_LOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_COMPCOST_TMP</t>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_COMPCOST_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFactTempLoad_PackCost</t>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_COST_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFactTempLoad_Pack</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_TMP
+W_RTL_SLSPK_TRX_COST_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_TMP</t>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDE_RetailSalesTransactionFact_Pack</t>
+  </si>
+  <si>
+    <t>SDE_RetailSalesPackTransactionFact</t>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_TRX_COMPCOST_TMP
+W_RTL_SLSPK_TRX_COST_TMP
+W_RTL_SLSPK_TRX_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLSPK_IT_LC_DY_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBG_SIL_Retail_SalesTransactionFact</t>
+  </si>
+  <si>
+    <t>SIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL_BBG_Retail_SalesTransactionFact</t>
+  </si>
+  <si>
+    <t>SIL_Retail_SalesTransactionFact_Temp</t>
+  </si>
+  <si>
+    <t>W_GLOBAL_CURR_G
+W_INT_ORG_DH_RTL_TMP
+W_PRODUCT_D_RTL_TMP
+W_MCAL_WEEK_D
+W_MCAL_DAY_D
+W_XACT_TYPE_D
+W_MCAL_CONTEXT_G
+W_INT_ORG_D_RTL_TMP
+BBG_RA_RETAIL_TYPE_D
+BBG_RA_ITEM_LOC_D
+W_MINUTE_OF_DAY_D
+W_RTL_SLS_TRX_IT_LC_DY_FS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_IT_LC_DY_TMP</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_IT_LC_DY_TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIL_Retail_SalesTransactionFact</t>
+  </si>
+  <si>
+    <t>W_RTL_SLS_TRX_IT_LC_DY_F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1871,7 +2040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1902,6 +2071,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4647,13 +4819,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6846,8 +7018,311 @@
         <v>451</v>
       </c>
     </row>
+    <row r="85" spans="1:8" ht="72" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="F86" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F89" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F90" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="24" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="144" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F96" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+      <c r="E97" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G83"/>
+  <autoFilter ref="A1:G84"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
